--- a/JavaGold.xlsx
+++ b/JavaGold.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masawa\Documents\workspace\java\BlackBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masawa\Documents\workspace\java\JavaGoldBlackBook\JavaGoldBlackBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E3C7AA-7D38-4F10-B09C-2D5A7A845124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA43586-A367-4E75-98A3-1B7A39D56623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="並列処理まとめ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>ch01</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +96,218 @@
   </si>
   <si>
     <t>ch03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Executors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThreadPool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newSingleThreadScheduledExecutor()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scheduleAtFixedRate()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newSingleThreadExecutor()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newFixedThreadPool()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newCachedThreadPool()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExecutorService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduledExecutorService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scheduleWithFixedDelay()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理時間を気にせず一定に実行する。</t>
+    <rPh sb="0" eb="4">
+      <t>ショリジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つのスレッドをPoolに作成して実行する。</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド数を指定してPoolに作成して実行する。</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要に応じてスレッドをPoolに作成して実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの処理を遅延実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期的に繰り返し実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThreadPool
+Schedule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの処理を遅延実行する。（Pool版）</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期的に繰り返し実行する。（Pool版）</t>
+    <rPh sb="0" eb="3">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理時間を気にせず一定に実行する。（Pool版）</t>
+    <rPh sb="0" eb="4">
+      <t>ショリジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newScheduledThreadPool()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -131,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,13 +353,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -426,23 +662,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,8 +691,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,8 +717,23 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,8 +746,23 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -491,8 +775,23 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -505,8 +804,23 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -519,8 +833,23 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -533,8 +862,23 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -547,8 +891,23 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -561,8 +920,23 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -575,8 +949,23 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -589,8 +978,23 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,8 +1004,23 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -614,8 +1033,23 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -628,8 +1062,23 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -639,174 +1088,35 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="I16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="J18" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="K18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -821,7 +1131,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C19:C32 F2:F18</xm:sqref>
+          <xm:sqref>K2:K18 G2:G15 D19:D32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -858,4 +1168,174 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02274A4C-76E2-451F-AF7E-CA628F9DF02E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>